--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_beg.xlsx
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sora"]   "Ma'am," huh? Hehe, I never thought the day would come when young Messengers would be calling me that~ So what's your impression of everybody?
+    <t xml:space="preserve">[name="Sora"]   'Ma'am,' huh? Hehe, I never thought the day would come when young Messengers would be calling me that~ So what's your impression of everybody?
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sora"]   You familiar with the old expression "trick or treat"?
+    <t xml:space="preserve">[name="Sora"]   You familiar with the old expression 'trick or treat'?
 </t>
   </si>
   <si>
@@ -1128,7 +1128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Texas"]   Who's "the big man" you're talking about?
+    <t xml:space="preserve">[name="Texas"]   Who's 'the big man' you're talking about?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_04_beg.xlsx
@@ -852,7 +852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">7:59 PM \ Cloudy
+    <t xml:space="preserve">7:59 P.M. \ Cloudy
 </t>
   </si>
   <si>
